--- a/data/trans_orig/P15C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8389</v>
+        <v>8634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.172017156958594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04432676693495328</v>
+        <v>0.04284937481798122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3682156524900979</v>
+        <v>0.3789764860541748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4473</v>
+        <v>4383</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06007598421551164</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2818749424686372</v>
+        <v>0.27623293254741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1927</v>
+        <v>1845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10621</v>
+        <v>10022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1260600436062303</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04984920414746505</v>
+        <v>0.04773317160400247</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2747979606967019</v>
+        <v>0.2593021967981066</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6823</v>
+        <v>6648</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09630718236405653</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2994894462546782</v>
+        <v>0.2918004180322064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7431</v>
+        <v>6368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05676855695846179</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1922611652280938</v>
+        <v>0.1647707811607854</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>9952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5235</v>
+        <v>5590</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14919</v>
+        <v>14689</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4368390685396967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.229804159059593</v>
+        <v>0.2453506206685093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6548603214381666</v>
+        <v>0.6447468036084855</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -899,19 +899,19 @@
         <v>9164</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5052</v>
+        <v>5221</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13053</v>
+        <v>13014</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5775291673217674</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.318428068037625</v>
+        <v>0.3290691185529244</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8226349921218366</v>
+        <v>0.820171145935222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -920,19 +920,19 @@
         <v>19116</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11989</v>
+        <v>12997</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24516</v>
+        <v>25135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4945989674119589</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3101970529622405</v>
+        <v>0.3362836668084986</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.634318936246056</v>
+        <v>0.6503493750648689</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>5768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2066</v>
+        <v>1978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11250</v>
+        <v>11299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2531637398705588</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09068480405777427</v>
+        <v>0.08681306385068102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4938229080229019</v>
+        <v>0.4959720725998402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -970,19 +970,19 @@
         <v>3059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6928</v>
+        <v>7097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1927800881899485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06093188020693156</v>
+        <v>0.06166453314949336</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4365995521570282</v>
+        <v>0.4473063741959997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -991,19 +991,19 @@
         <v>8826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4215</v>
+        <v>4031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15368</v>
+        <v>14995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2283734124430936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1090571776829173</v>
+        <v>0.1042949813374314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3976409976437199</v>
+        <v>0.387981768454128</v>
       </c>
     </row>
     <row r="8">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4125</v>
+        <v>5087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04167285226709402</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1810723609729888</v>
+        <v>0.2232705937334112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1041,19 +1041,19 @@
         <v>2691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6559</v>
+        <v>6922</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1696147602727724</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0523305981070708</v>
+        <v>0.05178114771110053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4133817078217338</v>
+        <v>0.4362611323047779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1062,19 +1062,19 @@
         <v>3641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7677</v>
+        <v>8167</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09419901958025541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02473043283908666</v>
+        <v>0.02431216468532577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1986394598596387</v>
+        <v>0.2113072039021968</v>
       </c>
     </row>
     <row r="9">
@@ -1213,19 +1213,19 @@
         <v>7156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13743</v>
+        <v>13134</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1712927878942803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07244206857301191</v>
+        <v>0.07206285559905631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3289493794688649</v>
+        <v>0.3143807650774487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>2855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7931</v>
+        <v>7662</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09473215209247245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02979034670852562</v>
+        <v>0.02968594211995993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2631782620226105</v>
+        <v>0.2542693203506003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1255,19 +1255,19 @@
         <v>10011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5279</v>
+        <v>4962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16744</v>
+        <v>16722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1392095447514288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.073403218904785</v>
+        <v>0.06899761615270779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2328398717844885</v>
+        <v>0.2325347321447776</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>5312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2054</v>
+        <v>2020</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11502</v>
+        <v>11004</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1271585576244385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04915784783926526</v>
+        <v>0.04834549192170327</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2753298603241863</v>
+        <v>0.2633906987259157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7403</v>
+        <v>8445</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08181674067473166</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2456682378841032</v>
+        <v>0.2802240478447928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1326,19 +1326,19 @@
         <v>7778</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3258</v>
+        <v>3447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14364</v>
+        <v>14507</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1081577679562085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04530372909729699</v>
+        <v>0.04793110472152094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1997456296498823</v>
+        <v>0.2017324252410267</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>16772</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9959</v>
+        <v>10560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23231</v>
+        <v>23852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4014551864049996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2383740569009635</v>
+        <v>0.2527719439906863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5560680127656756</v>
+        <v>0.5709282072721531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1376,19 +1376,19 @@
         <v>21909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15585</v>
+        <v>16253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26182</v>
+        <v>26094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7270259638167895</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5171592447135624</v>
+        <v>0.539332555326132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8688258323372381</v>
+        <v>0.8659149044427494</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1397,19 +1397,19 @@
         <v>38681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29477</v>
+        <v>29895</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46825</v>
+        <v>47185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5378877839470251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4099053003203512</v>
+        <v>0.4157149362672985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6511455765110761</v>
+        <v>0.6561477334999496</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>9529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4668</v>
+        <v>4501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16615</v>
+        <v>16368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2280809775724888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.111732318773133</v>
+        <v>0.1077423359602101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3976952912222845</v>
+        <v>0.3917934704352194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6286</v>
+        <v>6446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06777045734474726</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2085827231709796</v>
+        <v>0.2139052083793538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1468,19 +1468,19 @@
         <v>11571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5882</v>
+        <v>5900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19160</v>
+        <v>20723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1609017888816055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08179292054169793</v>
+        <v>0.08204583462928443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2664311172148081</v>
+        <v>0.2881687280526297</v>
       </c>
     </row>
     <row r="15">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6839</v>
+        <v>7229</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04715703931825697</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1636943922984098</v>
+        <v>0.173047051919984</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5000</v>
+        <v>4498</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02865468607125907</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1659048790028638</v>
+        <v>0.1492754851221315</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1539,19 +1539,19 @@
         <v>2834</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7738</v>
+        <v>7797</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03940350525050117</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01189365149684436</v>
+        <v>0.01184325002262179</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1076078270896688</v>
+        <v>0.1084256036678041</v>
       </c>
     </row>
     <row r="16">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5944</v>
+        <v>5373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02485545118553585</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1422761473547266</v>
+        <v>0.1286065056761903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5193</v>
+        <v>4346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0144396092132309</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07221677882709279</v>
+        <v>0.06043212967262442</v>
       </c>
     </row>
     <row r="17">
@@ -1706,19 +1706,19 @@
         <v>3066</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7626</v>
+        <v>7928</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1288037162262431</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03894328867645685</v>
+        <v>0.04036227941822582</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3203399064093144</v>
+        <v>0.3330351129404076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5012</v>
+        <v>4784</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04452259370139989</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2078506105457576</v>
+        <v>0.1983914325537913</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1748,19 +1748,19 @@
         <v>4140</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1051</v>
+        <v>1014</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9261</v>
+        <v>9206</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08639172933308602</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02194008196252015</v>
+        <v>0.02116941085005129</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1932699767230168</v>
+        <v>0.1921033024290868</v>
       </c>
     </row>
     <row r="19">
@@ -1777,19 +1777,19 @@
         <v>3657</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9450</v>
+        <v>8890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.153612586771835</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0417077844873405</v>
+        <v>0.04145921450466147</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3969601944617989</v>
+        <v>0.3734345146997153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1811,19 +1811,19 @@
         <v>3657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9132</v>
+        <v>9052</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07631158719306667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02071110679540844</v>
+        <v>0.02036929814460956</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1905577169566154</v>
+        <v>0.1888893217283044</v>
       </c>
     </row>
     <row r="20">
@@ -1840,19 +1840,19 @@
         <v>11415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6631</v>
+        <v>6608</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16221</v>
+        <v>16212</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4794916165316692</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2785522934708953</v>
+        <v>0.2775851357438359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6813765574745347</v>
+        <v>0.6809901203129016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1861,19 +1861,19 @@
         <v>15679</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10498</v>
+        <v>10275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20052</v>
+        <v>20032</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6501875099405106</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.435366878699193</v>
+        <v>0.4260951734271848</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8315586550345068</v>
+        <v>0.8307229056484257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -1882,19 +1882,19 @@
         <v>27093</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20089</v>
+        <v>20238</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33718</v>
+        <v>33960</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5653892858684481</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4192099490327367</v>
+        <v>0.4223300464293651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7036256391122151</v>
+        <v>0.7086868841558054</v>
       </c>
     </row>
     <row r="21">
@@ -1911,19 +1911,19 @@
         <v>3687</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8266</v>
+        <v>7883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1548717509936186</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03997693442921049</v>
+        <v>0.03956150702114705</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3472031188140687</v>
+        <v>0.3311431221636261</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1932,19 +1932,19 @@
         <v>7362</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3376</v>
+        <v>3360</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12848</v>
+        <v>12607</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3052898963580895</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1400101325741788</v>
+        <v>0.1393389686496308</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5327921427400868</v>
+        <v>0.5228072186476652</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1953,19 +1953,19 @@
         <v>11049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5815</v>
+        <v>6123</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17834</v>
+        <v>17687</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2305652422355094</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1213572373074466</v>
+        <v>0.1277701664269351</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3721595264223774</v>
+        <v>0.3690922998157363</v>
       </c>
     </row>
     <row r="22">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6257</v>
+        <v>6065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08322032947663413</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2628123103972914</v>
+        <v>0.2547638455908381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6450</v>
+        <v>6902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04134215536988995</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1345985240981339</v>
+        <v>0.1440255492142107</v>
       </c>
     </row>
     <row r="23">
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4943</v>
+        <v>4975</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02785888859959461</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1466194447362708</v>
+        <v>0.1475878511486247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4032</v>
+        <v>5112</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03996385455331222</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1702146150556936</v>
+        <v>0.2157965320336555</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5888</v>
+        <v>6016</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03285471196441792</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1025832760651229</v>
+        <v>0.1048114468506771</v>
       </c>
     </row>
     <row r="26">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4542</v>
+        <v>4270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02514339444567457</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1347250127226219</v>
+        <v>0.1266734798430224</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5736</v>
+        <v>7313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08600440609781709</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2421293723974166</v>
+        <v>0.308704614835459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2280,19 +2280,19 @@
         <v>2885</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7354</v>
+        <v>7731</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05026125641910532</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01464740069602655</v>
+        <v>0.01424889836651577</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1281124473898561</v>
+        <v>0.1346887638319104</v>
       </c>
     </row>
     <row r="27">
@@ -2309,19 +2309,19 @@
         <v>20913</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15091</v>
+        <v>15552</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>26367</v>
+        <v>26323</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6203751546401192</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4476802241542767</v>
+        <v>0.461339037558966</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.782169248692434</v>
+        <v>0.7808630465718907</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -2330,19 +2330,19 @@
         <v>14652</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9588</v>
+        <v>9036</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19637</v>
+        <v>18906</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6185057092542168</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4047328067876899</v>
+        <v>0.3814479452672614</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.82895975831186</v>
+        <v>0.7981105460519944</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>34</v>
@@ -2351,19 +2351,19 @@
         <v>35565</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27646</v>
+        <v>27075</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42694</v>
+        <v>42156</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.619603618481004</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4816412091350297</v>
+        <v>0.4717041541966478</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7438155029124026</v>
+        <v>0.734434820805653</v>
       </c>
     </row>
     <row r="28">
@@ -2380,19 +2380,19 @@
         <v>8374</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3623</v>
+        <v>4099</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14158</v>
+        <v>14245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.248406106996495</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1074638261359384</v>
+        <v>0.1216038557196909</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4199927501670228</v>
+        <v>0.4225643785305659</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2401,19 +2401,19 @@
         <v>5040</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1924</v>
+        <v>1834</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10145</v>
+        <v>9691</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2127653947824821</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08121121969268438</v>
+        <v>0.07743540001307936</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4282694100211485</v>
+        <v>0.4090765707734804</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2422,19 +2422,19 @@
         <v>13414</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7666</v>
+        <v>7641</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20772</v>
+        <v>21269</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2336968791061823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1335517792125958</v>
+        <v>0.1331277278771401</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3618897915304103</v>
+        <v>0.3705467647465683</v>
       </c>
     </row>
     <row r="29">
@@ -2451,19 +2451,19 @@
         <v>2637</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7337</v>
+        <v>7197</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07821645531811668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02438844698915556</v>
+        <v>0.02467052887607043</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2176599578185192</v>
+        <v>0.2134864748044844</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4893</v>
+        <v>5215</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04276063531217172</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2065716196653835</v>
+        <v>0.2201299892854252</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2493,19 +2493,19 @@
         <v>3650</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8797</v>
+        <v>8788</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06358353402929057</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01560692414439003</v>
+        <v>0.01546035782371731</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1532541464116838</v>
+        <v>0.1531042164512592</v>
       </c>
     </row>
     <row r="30">
@@ -2644,19 +2644,19 @@
         <v>15080</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8936</v>
+        <v>9001</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23547</v>
+        <v>23259</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1235337713610623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07320465800871609</v>
+        <v>0.07373159972507716</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1928917182486709</v>
+        <v>0.1905344572394938</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2665,19 +2665,19 @@
         <v>5828</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2101</v>
+        <v>2019</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11694</v>
+        <v>11776</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06213210892109747</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02239644066177822</v>
+        <v>0.02152475055651809</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1246663957739579</v>
+        <v>0.1255337103114302</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -2686,19 +2686,19 @@
         <v>20909</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13108</v>
+        <v>12942</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>29580</v>
+        <v>29877</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09685305734195382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06071680145641455</v>
+        <v>0.05994950220290294</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1370207367820103</v>
+        <v>0.1383977060757475</v>
       </c>
     </row>
     <row r="33">
@@ -2715,19 +2715,19 @@
         <v>12011</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5933</v>
+        <v>6686</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19251</v>
+        <v>20715</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09838894370172617</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04860489707551121</v>
+        <v>0.05477095599994264</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1576961138555201</v>
+        <v>0.1696928383937832</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2736,19 +2736,19 @@
         <v>4503</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10998</v>
+        <v>11001</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04800283007643459</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01217789423649574</v>
+        <v>0.01216080153899849</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1172441916030328</v>
+        <v>0.1172759031165538</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>15</v>
@@ -2757,19 +2757,19 @@
         <v>16514</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9639</v>
+        <v>10051</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26321</v>
+        <v>26436</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07649478913408513</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04464861867744126</v>
+        <v>0.0465559802713334</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1219259571267101</v>
+        <v>0.1224571277028637</v>
       </c>
     </row>
     <row r="34">
@@ -2786,19 +2786,19 @@
         <v>59051</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>48068</v>
+        <v>48283</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>70033</v>
+        <v>71006</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.483729852495603</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3937608421993906</v>
+        <v>0.3955228375796015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5736905054613078</v>
+        <v>0.5816596815142597</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>58</v>
@@ -2807,19 +2807,19 @@
         <v>61404</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>52828</v>
+        <v>51446</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70419</v>
+        <v>69501</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.654581253473637</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5631584684405249</v>
+        <v>0.5484329768786816</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7506849732395363</v>
+        <v>0.7409002054752515</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>116</v>
@@ -2828,19 +2828,19 @@
         <v>120454</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>104857</v>
+        <v>105167</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>134731</v>
+        <v>135156</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5579694933801791</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4857196114882986</v>
+        <v>0.4871567254247932</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6241022946716396</v>
+        <v>0.6260693067064627</v>
       </c>
     </row>
     <row r="35">
@@ -2857,19 +2857,19 @@
         <v>27357</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18108</v>
+        <v>17939</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38571</v>
+        <v>36816</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2240981239700478</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1483377113965372</v>
+        <v>0.1469498739517945</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3159661776146276</v>
+        <v>0.3015864818945151</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2878,19 +2878,19 @@
         <v>17503</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10599</v>
+        <v>11318</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25786</v>
+        <v>26918</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1865898717543505</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1129874335209654</v>
+        <v>0.1206578380883843</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2748902005865988</v>
+        <v>0.2869581366620914</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>42</v>
@@ -2899,19 +2899,19 @@
         <v>44860</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>33639</v>
+        <v>33101</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>60495</v>
+        <v>57502</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2077997549852978</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1558215392208164</v>
+        <v>0.1533318500785168</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2802252935361127</v>
+        <v>0.2663606675871378</v>
       </c>
     </row>
     <row r="36">
@@ -2928,19 +2928,19 @@
         <v>7537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3617</v>
+        <v>3287</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14576</v>
+        <v>13673</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06174313067954923</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02962620104286583</v>
+        <v>0.02692669455730846</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1194052500475963</v>
+        <v>0.1120092194725208</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2949,19 +2949,19 @@
         <v>4568</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1704</v>
+        <v>1821</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9995</v>
+        <v>10525</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04869393577448047</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01817023005640164</v>
+        <v>0.01940929790329244</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1065512123942811</v>
+        <v>0.1121953860938751</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -2970,19 +2970,19 @@
         <v>12105</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7236</v>
+        <v>6423</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20493</v>
+        <v>19146</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05607289597243263</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.033518882975783</v>
+        <v>0.02975088995541379</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09492951186105897</v>
+        <v>0.08868882550563949</v>
       </c>
     </row>
     <row r="37">
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5802</v>
+        <v>5969</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.008506177792011498</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0475251334473962</v>
+        <v>0.04889845176387755</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5123</v>
+        <v>5158</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004810009186051515</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0237298115187948</v>
+        <v>0.02389336828806998</v>
       </c>
     </row>
     <row r="38">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6099</v>
+        <v>6052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02851924188180393</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1050165827060645</v>
+        <v>0.1042077094955849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6451</v>
+        <v>6164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02279591871747852</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1254355552503955</v>
+        <v>0.1198426991549751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3419,19 +3419,19 @@
         <v>2829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7457</v>
+        <v>8206</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02583128775673565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006749362223937235</v>
+        <v>0.006699539846436015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06809307235973748</v>
+        <v>0.07492956156915193</v>
       </c>
     </row>
     <row r="5">
@@ -3448,19 +3448,19 @@
         <v>6730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2755</v>
+        <v>2896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12606</v>
+        <v>13076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1158736530793291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04743575340577397</v>
+        <v>0.0498635052052515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2170522060470524</v>
+        <v>0.2251437821468943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3469,19 +3469,19 @@
         <v>4997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1948</v>
+        <v>1962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10355</v>
+        <v>11025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09716272224691323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0378838991794147</v>
+        <v>0.03814189140299782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.201338733455015</v>
+        <v>0.2143611996038693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -3490,19 +3490,19 @@
         <v>11727</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6504</v>
+        <v>5971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18609</v>
+        <v>20199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1070860794493177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05939073925279378</v>
+        <v>0.0545258533745285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1699283696768175</v>
+        <v>0.1844457464945504</v>
       </c>
     </row>
     <row r="6">
@@ -3519,19 +3519,19 @@
         <v>34491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26778</v>
+        <v>27342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42279</v>
+        <v>41207</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5938621729792397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4610542633361219</v>
+        <v>0.4707811734202517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.727960192426398</v>
+        <v>0.7095007114681749</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -3540,19 +3540,19 @@
         <v>29262</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22355</v>
+        <v>21289</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36619</v>
+        <v>36027</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5689373172568242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4346564164292882</v>
+        <v>0.4139161192099596</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7119873004192535</v>
+        <v>0.7004791164910845</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -3561,19 +3561,19 @@
         <v>63753</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53734</v>
+        <v>52026</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74009</v>
+        <v>73400</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5821562345179271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4906764650647178</v>
+        <v>0.4750789064914221</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6758167489646997</v>
+        <v>0.6702515138927414</v>
       </c>
     </row>
     <row r="7">
@@ -3590,19 +3590,19 @@
         <v>12089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6279</v>
+        <v>6609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19013</v>
+        <v>18644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2081538920517877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.108114379838068</v>
+        <v>0.1137900918133046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3273566153393478</v>
+        <v>0.3210057146327552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3611,19 +3611,19 @@
         <v>7541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3232</v>
+        <v>3358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14223</v>
+        <v>14179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1466138299199917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06284376639594132</v>
+        <v>0.06529759718779636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2765444744737257</v>
+        <v>0.2756802400382051</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3632,19 +3632,19 @@
         <v>19630</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11979</v>
+        <v>12152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28509</v>
+        <v>28772</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1792516513229758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1093839450232201</v>
+        <v>0.1109632767572196</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2603324098463921</v>
+        <v>0.2627333885540037</v>
       </c>
     </row>
     <row r="8">
@@ -3661,19 +3661,19 @@
         <v>3113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8370</v>
+        <v>8361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05359104000783951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0170316361576221</v>
+        <v>0.01732961940801638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1441077370069654</v>
+        <v>0.1439574157966809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3682,19 +3682,19 @@
         <v>8460</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4123</v>
+        <v>4096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15214</v>
+        <v>14734</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1644902118587924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08015860074808814</v>
+        <v>0.07964817722783032</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2958080621555029</v>
+        <v>0.2864672770646967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -3703,19 +3703,19 @@
         <v>11573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6174</v>
+        <v>6198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19313</v>
+        <v>19310</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1056747469530438</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05637843423899379</v>
+        <v>0.05660101850283825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1763566786876939</v>
+        <v>0.1763267659913529</v>
       </c>
     </row>
     <row r="9">
@@ -3854,19 +3854,19 @@
         <v>5833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2021</v>
+        <v>2614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11316</v>
+        <v>12260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07176238268245609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02486736335036437</v>
+        <v>0.03215729956343608</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1392101945759051</v>
+        <v>0.1508173184596752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3875,19 +3875,19 @@
         <v>2970</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8022</v>
+        <v>7922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03979888257601279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01295948644320788</v>
+        <v>0.01281091359561008</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1075010553462667</v>
+        <v>0.1061539463610869</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -3896,19 +3896,19 @@
         <v>8803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4623</v>
+        <v>3961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16405</v>
+        <v>16029</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05646393538290867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02964923956155011</v>
+        <v>0.02540699802210774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1052192637331927</v>
+        <v>0.1028044006494023</v>
       </c>
     </row>
     <row r="12">
@@ -3925,19 +3925,19 @@
         <v>6022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2093</v>
+        <v>2040</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13798</v>
+        <v>12635</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07408251112390356</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0257471172067285</v>
+        <v>0.02509110983768615</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1697449144101084</v>
+        <v>0.1554289821883849</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -3946,19 +3946,19 @@
         <v>3999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9075</v>
+        <v>9125</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05359130746957361</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01342212825825189</v>
+        <v>0.01314721683779026</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1216067144592562</v>
+        <v>0.1222799958978636</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3967,19 +3967,19 @@
         <v>10021</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4224</v>
+        <v>4807</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17744</v>
+        <v>19043</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06427496194543086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0270948125240406</v>
+        <v>0.03083343861265661</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1138102095912248</v>
+        <v>0.1221359573809653</v>
       </c>
     </row>
     <row r="13">
@@ -3996,19 +3996,19 @@
         <v>58214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49470</v>
+        <v>49823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66104</v>
+        <v>67111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7161330021636366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6085698041179708</v>
+        <v>0.6129076779939898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8131939821173461</v>
+        <v>0.825584401985918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -4017,19 +4017,19 @@
         <v>45381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36920</v>
+        <v>35426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53116</v>
+        <v>53384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6081347962436929</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4947559405049199</v>
+        <v>0.4747310321081191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7117970419492595</v>
+        <v>0.7153818764269787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -4038,19 +4038,19 @@
         <v>103595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89188</v>
+        <v>90579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114280</v>
+        <v>115832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6644426410889785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5720346635140631</v>
+        <v>0.5809591977688778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7329712490635929</v>
+        <v>0.7429263570529905</v>
       </c>
     </row>
     <row r="14">
@@ -4067,19 +4067,19 @@
         <v>8325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3209</v>
+        <v>3292</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16351</v>
+        <v>16174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1024148373576375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03947359591991252</v>
+        <v>0.04049242983404941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2011480570395364</v>
+        <v>0.1989714663127137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4088,19 +4088,19 @@
         <v>11827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6323</v>
+        <v>6390</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19894</v>
+        <v>20510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1584956597934521</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08472659357858985</v>
+        <v>0.08562860414167643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2665894848593321</v>
+        <v>0.2748472670931115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -4109,19 +4109,19 @@
         <v>20153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11741</v>
+        <v>12483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29153</v>
+        <v>31037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1292563754774455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07530786562810371</v>
+        <v>0.08006321106773613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1869841263734554</v>
+        <v>0.1990679367927625</v>
       </c>
     </row>
     <row r="15">
@@ -4138,19 +4138,19 @@
         <v>2894</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7979</v>
+        <v>7763</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03560726667236618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01116194019235213</v>
+        <v>0.0110842498220882</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09815995930904849</v>
+        <v>0.09550337578809234</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -4159,19 +4159,19 @@
         <v>10446</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5137</v>
+        <v>5281</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18687</v>
+        <v>17718</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1399793539172686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06883505632470215</v>
+        <v>0.07076853883115032</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2504187786801377</v>
+        <v>0.2374287603555878</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -4180,19 +4180,19 @@
         <v>13340</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7043</v>
+        <v>7379</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21988</v>
+        <v>22082</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08556208610523644</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04517264896423389</v>
+        <v>0.0473262475729341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.14102974103858</v>
+        <v>0.1416328078771009</v>
       </c>
     </row>
     <row r="16">
@@ -4331,19 +4331,19 @@
         <v>5932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2186</v>
+        <v>2222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11970</v>
+        <v>10921</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1031779922389088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03801336460091647</v>
+        <v>0.03864661610530577</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2081787689280235</v>
+        <v>0.1899377047010133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4352,19 +4352,19 @@
         <v>8155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3826</v>
+        <v>3188</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14588</v>
+        <v>14186</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1429622294047098</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06707212091518953</v>
+        <v>0.05588163618024137</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2557213238590131</v>
+        <v>0.248688360861209</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -4373,19 +4373,19 @@
         <v>14088</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7999</v>
+        <v>8521</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22510</v>
+        <v>22580</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1229914551690861</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06983269530493916</v>
+        <v>0.07439549304535281</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1965230814982995</v>
+        <v>0.1971331738090325</v>
       </c>
     </row>
     <row r="19">
@@ -4402,19 +4402,19 @@
         <v>3320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9036</v>
+        <v>9201</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05773794624942098</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01630441842144175</v>
+        <v>0.01667120952807112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.157154401375212</v>
+        <v>0.1600294136925464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6532</v>
+        <v>7120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03719798770916293</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1145036691997055</v>
+        <v>0.1248169509730083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -4444,19 +4444,19 @@
         <v>5442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2047</v>
+        <v>1951</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13548</v>
+        <v>12411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04750857562133172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01787201153764849</v>
+        <v>0.0170333691579193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1182771954421019</v>
+        <v>0.1083559613348825</v>
       </c>
     </row>
     <row r="20">
@@ -4473,19 +4473,19 @@
         <v>32128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25091</v>
+        <v>24340</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.558770619681519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4363807614416637</v>
+        <v>0.4233297054513332</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6823745461817141</v>
+        <v>0.6839598246953962</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -4494,19 +4494,19 @@
         <v>28135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20655</v>
+        <v>20887</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36221</v>
+        <v>36024</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.493203834422575</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3620774758912765</v>
+        <v>0.3661556877590929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6349614963167226</v>
+        <v>0.6315042298450825</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -4515,19 +4515,19 @@
         <v>60262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48633</v>
+        <v>49924</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>70197</v>
+        <v>70223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5261168562383504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4245869178948008</v>
+        <v>0.4358606749995704</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6128469087814892</v>
+        <v>0.6130774997378688</v>
       </c>
     </row>
     <row r="21">
@@ -4544,19 +4544,19 @@
         <v>10806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5706</v>
+        <v>6022</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17730</v>
+        <v>17790</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1879446814904066</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09923299015142048</v>
+        <v>0.1047327859061946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3083596769519286</v>
+        <v>0.3094133317433648</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4565,19 +4565,19 @@
         <v>11644</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6233</v>
+        <v>7008</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19159</v>
+        <v>19158</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2041259365189318</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1092727614768878</v>
+        <v>0.1228531962644829</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3358619705186613</v>
+        <v>0.3358474661910725</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -4586,19 +4586,19 @@
         <v>22451</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14633</v>
+        <v>15166</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31276</v>
+        <v>31995</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.196003317762237</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1277565758951774</v>
+        <v>0.1324096119749605</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2730512681015891</v>
+        <v>0.2793324701344862</v>
       </c>
     </row>
     <row r="22">
@@ -4615,19 +4615,19 @@
         <v>4301</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9851</v>
+        <v>11066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07479779722533007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02267514840248623</v>
+        <v>0.02287044982223539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1713264860537156</v>
+        <v>0.1924688878131556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4636,19 +4636,19 @@
         <v>6989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3027</v>
+        <v>2967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14332</v>
+        <v>13713</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1225100119446205</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05306577714934279</v>
+        <v>0.05200385294645167</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2512346187151676</v>
+        <v>0.2403939630479673</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4657,19 +4657,19 @@
         <v>11289</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5510</v>
+        <v>5932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19085</v>
+        <v>19630</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09855957487906754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04810821981088809</v>
+        <v>0.05178694057526263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.16662054058518</v>
+        <v>0.1713762504320924</v>
       </c>
     </row>
     <row r="23">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5101</v>
+        <v>5141</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0175709631144146</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08871911023578477</v>
+        <v>0.08941831559801018</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5712</v>
+        <v>5045</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008820220329927254</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04986874288908694</v>
+        <v>0.04404759659019659</v>
       </c>
     </row>
     <row r="24">
@@ -4824,19 +4824,19 @@
         <v>3816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>994</v>
+        <v>927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12315</v>
+        <v>10679</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04371030813159344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01138197813719603</v>
+        <v>0.01061506930152546</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1410719477605338</v>
+        <v>0.1223286970416723</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -4845,19 +4845,19 @@
         <v>4673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11761</v>
+        <v>11806</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06465013074935684</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01398665745199383</v>
+        <v>0.01366320269370428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1627023853189589</v>
+        <v>0.1633262478292787</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4866,19 +4866,19 @@
         <v>8489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3784</v>
+        <v>3641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17530</v>
+        <v>17686</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05319543664318252</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0237153064824122</v>
+        <v>0.02281677588191718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1098538571406623</v>
+        <v>0.1108273993046219</v>
       </c>
     </row>
     <row r="26">
@@ -4895,19 +4895,19 @@
         <v>4773</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1836</v>
+        <v>1812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10466</v>
+        <v>10520</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05467586552877107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02103244644398115</v>
+        <v>0.02075884451582426</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1198954210927053</v>
+        <v>0.1205178979831944</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4916,19 +4916,19 @@
         <v>5263</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2035</v>
+        <v>1972</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11512</v>
+        <v>11094</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07281276988036527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02814983524949087</v>
+        <v>0.02728771064919666</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1592625403472845</v>
+        <v>0.1534844277284138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -4937,19 +4937,19 @@
         <v>10036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5050</v>
+        <v>5088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17525</v>
+        <v>17337</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06289135386969594</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03164583670463916</v>
+        <v>0.03188319823960171</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.109818344398245</v>
+        <v>0.1086424439172804</v>
       </c>
     </row>
     <row r="27">
@@ -4966,19 +4966,19 @@
         <v>62613</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52549</v>
+        <v>53218</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70308</v>
+        <v>70167</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7172659437301387</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6019807347204376</v>
+        <v>0.6096379361738482</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8054206316166985</v>
+        <v>0.8038022541039084</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>36</v>
@@ -4987,19 +4987,19 @@
         <v>38788</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30591</v>
+        <v>30099</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47603</v>
+        <v>46811</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5366085018464011</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4232034093236209</v>
+        <v>0.4164025136499374</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6585542619042086</v>
+        <v>0.6475967563532378</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>97</v>
@@ -5008,19 +5008,19 @@
         <v>101401</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>88430</v>
+        <v>89317</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>113135</v>
+        <v>113958</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6354333950919968</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5541489856961539</v>
+        <v>0.5597050650177627</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7089654364919743</v>
+        <v>0.7141225302719602</v>
       </c>
     </row>
     <row r="28">
@@ -5037,19 +5037,19 @@
         <v>8697</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3954</v>
+        <v>3802</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16490</v>
+        <v>15655</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09963449955242804</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04529270342907082</v>
+        <v>0.04355090666129077</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1889075312963988</v>
+        <v>0.179331923207207</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5058,19 +5058,19 @@
         <v>7180</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3043</v>
+        <v>3171</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12776</v>
+        <v>14197</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09933396383642917</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04209533731318982</v>
+        <v>0.04387102790721418</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1767463817010747</v>
+        <v>0.1964110601179156</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -5079,19 +5079,19 @@
         <v>15878</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8850</v>
+        <v>8915</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24975</v>
+        <v>24549</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09949836564429486</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05545906069522507</v>
+        <v>0.0558670240569886</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1565062665884459</v>
+        <v>0.1538339493594526</v>
       </c>
     </row>
     <row r="29">
@@ -5108,19 +5108,19 @@
         <v>7395</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2898</v>
+        <v>3012</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13145</v>
+        <v>13352</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08471338305706874</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03319864447662661</v>
+        <v>0.0345084651051367</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.150585623242357</v>
+        <v>0.1529525374824178</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5129,19 +5129,19 @@
         <v>16379</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9489</v>
+        <v>10005</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24331</v>
+        <v>24153</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2265946336874477</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1312794980550539</v>
+        <v>0.1384107770734093</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3365978946033177</v>
+        <v>0.3341447196290814</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -5150,19 +5150,19 @@
         <v>23774</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15895</v>
+        <v>15182</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34914</v>
+        <v>33911</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1489814487508298</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0996080054422134</v>
+        <v>0.09513544131950466</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2187874447555259</v>
+        <v>0.2125031543054438</v>
       </c>
     </row>
     <row r="30">
@@ -5301,19 +5301,19 @@
         <v>17238</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10465</v>
+        <v>10304</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26272</v>
+        <v>27007</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0606630445832507</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03682873165897884</v>
+        <v>0.03626061838826423</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09245553000846606</v>
+        <v>0.09504051074436011</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -5322,19 +5322,19 @@
         <v>16971</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10201</v>
+        <v>10168</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27756</v>
+        <v>26163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06645196351331892</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0399436513776459</v>
+        <v>0.0398140732805715</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1086847052253513</v>
+        <v>0.1024446846185351</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -5343,19 +5343,19 @@
         <v>34209</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>24427</v>
+        <v>23669</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47489</v>
+        <v>48660</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06340313028206916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04527355704957237</v>
+        <v>0.04386863918185482</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08801696082969898</v>
+        <v>0.09018675825163162</v>
       </c>
     </row>
     <row r="33">
@@ -5372,19 +5372,19 @@
         <v>20845</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>13770</v>
+        <v>12558</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>31707</v>
+        <v>30600</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07335524578494225</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04845732104711618</v>
+        <v>0.0441927944249738</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1115804871226012</v>
+        <v>0.1076869520070118</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>16</v>
@@ -5393,19 +5393,19 @@
         <v>16382</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10046</v>
+        <v>9203</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25786</v>
+        <v>24613</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06414488506262318</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03933680361977451</v>
+        <v>0.03603659558888422</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1009697267448279</v>
+        <v>0.09637448432357262</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>36</v>
@@ -5414,19 +5414,19 @@
         <v>37226</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>27507</v>
+        <v>26464</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>51544</v>
+        <v>50435</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06899567917137278</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0509820826066724</v>
+        <v>0.04904809340418778</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09553264007302842</v>
+        <v>0.09347790758735317</v>
       </c>
     </row>
     <row r="34">
@@ -5443,19 +5443,19 @@
         <v>187446</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>169609</v>
+        <v>171288</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>203156</v>
+        <v>204080</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6596492692503061</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5968769004944295</v>
+        <v>0.6027855364733345</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7149355195335028</v>
+        <v>0.7181866773552624</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>132</v>
@@ -5464,19 +5464,19 @@
         <v>141565</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>123847</v>
+        <v>125554</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156843</v>
+        <v>156552</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5543240225655059</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.484944417437743</v>
+        <v>0.4916276911831091</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6141458311479453</v>
+        <v>0.6130054229539311</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>311</v>
@@ -5485,19 +5485,19 @@
         <v>329011</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>304366</v>
+        <v>305281</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>351296</v>
+        <v>352500</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6097953663624062</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5641167711843017</v>
+        <v>0.5658132409725688</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.651097135255041</v>
+        <v>0.6533302062614519</v>
       </c>
     </row>
     <row r="35">
@@ -5514,19 +5514,19 @@
         <v>39918</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29137</v>
+        <v>29323</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52811</v>
+        <v>52644</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1404788623424564</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1025384841546008</v>
+        <v>0.1031906730562748</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1858487295067514</v>
+        <v>0.1852620705380408</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>36</v>
@@ -5535,19 +5535,19 @@
         <v>38193</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27849</v>
+        <v>28145</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50453</v>
+        <v>51410</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1495498677884052</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1090482638157982</v>
+        <v>0.1102067127724726</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1975580828702299</v>
+        <v>0.2013064907880024</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>74</v>
@@ -5556,19 +5556,19 @@
         <v>78111</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>63060</v>
+        <v>60948</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>95675</v>
+        <v>94072</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1447724675210067</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1168770925204474</v>
+        <v>0.1129612199199736</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1773248594416497</v>
+        <v>0.1743552154084363</v>
       </c>
     </row>
     <row r="36">
@@ -5585,19 +5585,19 @@
         <v>17703</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10419</v>
+        <v>10682</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26664</v>
+        <v>27347</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06229824012868405</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0366647190745829</v>
+        <v>0.03759103063339978</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09383306014228551</v>
+        <v>0.09623899705615131</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>39</v>
@@ -5606,19 +5606,19 @@
         <v>42274</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>31407</v>
+        <v>31166</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56348</v>
+        <v>55715</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1655292610701467</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1229797442527596</v>
+        <v>0.1220354210527369</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2206411728344796</v>
+        <v>0.2181620471133307</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>56</v>
@@ -5627,19 +5627,19 @@
         <v>59976</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>47220</v>
+        <v>46009</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75978</v>
+        <v>77755</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1111608771034252</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08751920825166669</v>
+        <v>0.08527382993800454</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1408183954599262</v>
+        <v>0.1441119076903951</v>
       </c>
     </row>
     <row r="37">
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5075</v>
+        <v>5518</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003555337910360538</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01785965871389516</v>
+        <v>0.01941992645774173</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6035</v>
+        <v>5379</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001872479559720069</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01118503874828973</v>
+        <v>0.009969761255123147</v>
       </c>
     </row>
     <row r="38">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6155</v>
+        <v>6172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04808266980594483</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1508480668696581</v>
+        <v>0.1512713857382247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5937</v>
+        <v>6133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04048428765566766</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1247632372955848</v>
+        <v>0.1288835175397962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6076,19 +6076,19 @@
         <v>3888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9169</v>
+        <v>9117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04399178728749393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01181509009049054</v>
+        <v>0.01176257547067364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.103740237676715</v>
+        <v>0.1031461533974029</v>
       </c>
     </row>
     <row r="5">
@@ -6105,19 +6105,19 @@
         <v>3826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8919</v>
+        <v>8802</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09377631145915971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02481684563223678</v>
+        <v>0.02462084228035251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2185945106649652</v>
+        <v>0.2157345329864078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -6126,19 +6126,19 @@
         <v>4455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1243</v>
+        <v>1182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11011</v>
+        <v>10805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09362818079076048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02612735242440429</v>
+        <v>0.02483905142651666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.231376583337168</v>
+        <v>0.2270614615204079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -6147,19 +6147,19 @@
         <v>8282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3949</v>
+        <v>3694</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14661</v>
+        <v>15185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09369655959227331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04467673437563868</v>
+        <v>0.04179003182955238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.165866107250787</v>
+        <v>0.1718015533143309</v>
       </c>
     </row>
     <row r="6">
@@ -6176,19 +6176,19 @@
         <v>24196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17501</v>
+        <v>18104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30086</v>
+        <v>29938</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5930345296728474</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4289413101920901</v>
+        <v>0.4437080585678126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7373837220935857</v>
+        <v>0.7337479978003018</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -6197,19 +6197,19 @@
         <v>31460</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23851</v>
+        <v>23201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37256</v>
+        <v>37694</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6610960984842641</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5011994604299591</v>
+        <v>0.4875414506071735</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7829027141763913</v>
+        <v>0.7921173311400885</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -6218,19 +6218,19 @@
         <v>55656</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46530</v>
+        <v>45905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63891</v>
+        <v>64298</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6296781041236023</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5264240392164971</v>
+        <v>0.5193621274936318</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7228508338589983</v>
+        <v>0.727455629352477</v>
       </c>
     </row>
     <row r="7">
@@ -6247,19 +6247,19 @@
         <v>9806</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5673</v>
+        <v>4851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16301</v>
+        <v>15925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2403330697613289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1390458132329037</v>
+        <v>0.1188897875778019</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3995240993797213</v>
+        <v>0.3903073625841464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -6268,19 +6268,19 @@
         <v>7216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3129</v>
+        <v>3134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13362</v>
+        <v>13592</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1516379050061169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06576267552991444</v>
+        <v>0.06585394753771716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2807892890380791</v>
+        <v>0.2856262742630698</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -6289,19 +6289,19 @@
         <v>17022</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10541</v>
+        <v>10990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24498</v>
+        <v>25292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.192580601960669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1192618463137051</v>
+        <v>0.1243339030712656</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2771682225589278</v>
+        <v>0.2861441166606729</v>
       </c>
     </row>
     <row r="8">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4145</v>
+        <v>6565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02477341930071912</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1015942936422151</v>
+        <v>0.1609028728229918</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5210</v>
+        <v>4476</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01143569214575242</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05894041468631237</v>
+        <v>0.05064301470993435</v>
       </c>
     </row>
     <row r="9">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8924</v>
+        <v>8049</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0531535280631909</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1875229285696882</v>
+        <v>0.1691358606896786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8515</v>
+        <v>8675</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02861725489020915</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09633570949689764</v>
+        <v>0.09815191461477588</v>
       </c>
     </row>
     <row r="10">
@@ -6519,19 +6519,19 @@
         <v>6726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2687</v>
+        <v>1699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14261</v>
+        <v>13941</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1112113765547682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04443120900908232</v>
+        <v>0.02808767872702392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2358168884078779</v>
+        <v>0.2305277874961401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -6540,19 +6540,19 @@
         <v>3300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8826</v>
+        <v>8551</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06791136430758174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>0.0207283340622539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1816118355032174</v>
+        <v>0.1759479756890575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -6561,19 +6561,19 @@
         <v>10026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4972</v>
+        <v>4852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18374</v>
+        <v>19008</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09191853537582916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04558485226863035</v>
+        <v>0.04448262931914558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1684538780044384</v>
+        <v>0.1742705945894016</v>
       </c>
     </row>
     <row r="12">
@@ -6590,19 +6590,19 @@
         <v>3062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7426</v>
+        <v>8492</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05063318735676824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01550748070597326</v>
+        <v>0.01590418068457729</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1227886618153813</v>
+        <v>0.1404243870804014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6188</v>
+        <v>6849</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04105106582855761</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1273291527606668</v>
+        <v>0.1409312909447263</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -6632,19 +6632,19 @@
         <v>5057</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1045</v>
+        <v>1991</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10467</v>
+        <v>10278</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04636375787610862</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009583378440922736</v>
+        <v>0.01825418278749491</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0959609756327148</v>
+        <v>0.09422659799416226</v>
       </c>
     </row>
     <row r="13">
@@ -6661,19 +6661,19 @@
         <v>36904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28919</v>
+        <v>28595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44983</v>
+        <v>44413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6102320021599533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4782043371050113</v>
+        <v>0.4728342540353371</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7438259448451914</v>
+        <v>0.7343988525357733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -6682,19 +6682,19 @@
         <v>36483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29554</v>
+        <v>29864</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42135</v>
+        <v>41698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7506849473826545</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6081158336186424</v>
+        <v>0.614506827444164</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8669910763287322</v>
+        <v>0.8580099888031132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -6703,19 +6703,19 @@
         <v>73386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63395</v>
+        <v>61333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83943</v>
+        <v>82538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6728125009789085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5812082082550787</v>
+        <v>0.5623107303563817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7695981173431071</v>
+        <v>0.7567153728401824</v>
       </c>
     </row>
     <row r="14">
@@ -6732,19 +6732,19 @@
         <v>12811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7026</v>
+        <v>7284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20212</v>
+        <v>20373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2118391676111685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1161830660766041</v>
+        <v>0.1204421730160169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3342266842976324</v>
+        <v>0.3368780335230989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -6753,19 +6753,19 @@
         <v>5610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2054</v>
+        <v>2148</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11585</v>
+        <v>11208</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1154387763912867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04226764267171014</v>
+        <v>0.04420776741655318</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.238380724145269</v>
+        <v>0.230620287933167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -6774,19 +6774,19 @@
         <v>18421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11323</v>
+        <v>11490</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27140</v>
+        <v>28816</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1688868140003767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1038129999066479</v>
+        <v>0.1053420583427304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2488184916792129</v>
+        <v>0.264186828835083</v>
       </c>
     </row>
     <row r="15">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4834</v>
+        <v>5132</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01608426631734173</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07993572390152065</v>
+        <v>0.08485582065608938</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6466</v>
+        <v>5837</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02491384608991951</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1330486946758263</v>
+        <v>0.1201129291601469</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6896</v>
+        <v>7404</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02001839176877701</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06322227483208727</v>
+        <v>0.06787773936263337</v>
       </c>
     </row>
     <row r="16">
@@ -6996,19 +6996,19 @@
         <v>2943</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7861</v>
+        <v>7894</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08025629553298042</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02554999940492976</v>
+        <v>0.02536708165194711</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2143817599562844</v>
+        <v>0.2152940146812697</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -7017,19 +7017,19 @@
         <v>2950</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7852</v>
+        <v>7303</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09347372422193501</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02890112063628419</v>
+        <v>0.0292392677209766</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2487727499291901</v>
+        <v>0.2314066925945532</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -7038,19 +7038,19 @@
         <v>5893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2794</v>
+        <v>1960</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11999</v>
+        <v>11368</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08637051614814156</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0409471361562853</v>
+        <v>0.02872292144615447</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1758699322738548</v>
+        <v>0.1666257494365182</v>
       </c>
     </row>
     <row r="19">
@@ -7067,19 +7067,19 @@
         <v>3505</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9471</v>
+        <v>9077</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09558047850639358</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02793866912309681</v>
+        <v>0.02741408700491254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2582980156677573</v>
+        <v>0.2475620629582351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7088,19 +7088,19 @@
         <v>4402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1105</v>
+        <v>1237</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10079</v>
+        <v>10092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1394893779024632</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03501441390882049</v>
+        <v>0.03918819578278739</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3193348547817106</v>
+        <v>0.3197741270152633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -7109,19 +7109,19 @@
         <v>7907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3333</v>
+        <v>3352</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15304</v>
+        <v>15047</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1158921975399782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04885365580816417</v>
+        <v>0.04913626918267564</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2243117959759423</v>
+        <v>0.2205461666087663</v>
       </c>
     </row>
     <row r="20">
@@ -7138,19 +7138,19 @@
         <v>17779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11604</v>
+        <v>11230</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23904</v>
+        <v>24225</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.48489056204173</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3164814743801576</v>
+        <v>0.3062912136209201</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6519263213556283</v>
+        <v>0.6606822907973582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -7159,19 +7159,19 @@
         <v>16868</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10752</v>
+        <v>10820</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22653</v>
+        <v>22646</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5344577970382717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.340688440805278</v>
+        <v>0.3428330543043846</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7177680050856179</v>
+        <v>0.7175425360100492</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -7180,19 +7180,19 @@
         <v>34647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25954</v>
+        <v>24639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42624</v>
+        <v>42373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5078197578168246</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3804022215978553</v>
+        <v>0.3611383699284729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.624733293890179</v>
+        <v>0.6210596004367128</v>
       </c>
     </row>
     <row r="21">
@@ -7209,19 +7209,19 @@
         <v>10369</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5400</v>
+        <v>5274</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16650</v>
+        <v>16748</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2827943054505995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1472769149125698</v>
+        <v>0.1438436152407361</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4540902229355902</v>
+        <v>0.4567667355472347</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -7230,19 +7230,19 @@
         <v>4734</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1309</v>
+        <v>1173</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10649</v>
+        <v>10181</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1499905913737981</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04146431894653254</v>
+        <v>0.03717673230546173</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3374169451226924</v>
+        <v>0.3225966306817805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -7251,19 +7251,19 @@
         <v>15103</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9335</v>
+        <v>8955</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23208</v>
+        <v>23209</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2213609339918298</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.136822225542585</v>
+        <v>0.131254747061</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3401595250815553</v>
+        <v>0.3401663842357274</v>
       </c>
     </row>
     <row r="22">
@@ -7283,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7253</v>
+        <v>6289</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05647835846829643</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1978247617712439</v>
+        <v>0.1715294998427658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8159</v>
+        <v>8559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08258850946353201</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2585137314552172</v>
+        <v>0.27118702738979</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -7322,19 +7322,19 @@
         <v>4677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1518</v>
+        <v>1069</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11300</v>
+        <v>10587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06855659450322575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02224641108943183</v>
+        <v>0.01566742170278281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1656201232658609</v>
+        <v>0.1551728885933146</v>
       </c>
     </row>
     <row r="23">
@@ -7473,19 +7473,19 @@
         <v>6678</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2835</v>
+        <v>2895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12207</v>
+        <v>12837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.115788109212941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04915265927743742</v>
+        <v>0.05020110646804078</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2116518649232865</v>
+        <v>0.2225848912390988</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -7494,19 +7494,19 @@
         <v>4983</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11651</v>
+        <v>12073</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08096043428009793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02053909516102683</v>
+        <v>0.02046791343796218</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1893080744828265</v>
+        <v>0.1961764801126382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7515,19 +7515,19 @@
         <v>11661</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5931</v>
+        <v>6119</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19514</v>
+        <v>18998</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09780885463396222</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04974537567499326</v>
+        <v>0.05132694033382372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1636791616855503</v>
+        <v>0.1593520003226585</v>
       </c>
     </row>
     <row r="26">
@@ -7544,19 +7544,19 @@
         <v>6511</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2870</v>
+        <v>2773</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13684</v>
+        <v>12826</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1128902979116093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04976314641184947</v>
+        <v>0.04808415399852312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2372713318643766</v>
+        <v>0.2223987166693101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7565,19 +7565,19 @@
         <v>4076</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9588</v>
+        <v>10362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06622108424071864</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0169716200354086</v>
+        <v>0.01680043670821933</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1557965889368094</v>
+        <v>0.168362989272825</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -7586,19 +7586,19 @@
         <v>10586</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5590</v>
+        <v>5573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18292</v>
+        <v>18672</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08879803004682468</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04689164078012082</v>
+        <v>0.04674668917349213</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1534334158038711</v>
+        <v>0.156617315580192</v>
       </c>
     </row>
     <row r="27">
@@ -7615,19 +7615,19 @@
         <v>37827</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29918</v>
+        <v>29991</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44346</v>
+        <v>44188</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6558872216555163</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5187441825982485</v>
+        <v>0.5200103402332649</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7689184495849952</v>
+        <v>0.7661789713415089</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -7636,19 +7636,19 @@
         <v>35207</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>25722</v>
+        <v>27166</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>42938</v>
+        <v>43597</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5720658310871809</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4179429935833767</v>
+        <v>0.4414028314754903</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.697680534663897</v>
+        <v>0.7083862902047703</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>68</v>
@@ -7657,19 +7657,19 @@
         <v>73035</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>60963</v>
+        <v>62452</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>83395</v>
+        <v>84224</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6126157106201658</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5113587693953968</v>
+        <v>0.5238494332466013</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6995140100558427</v>
+        <v>0.7064737426349169</v>
       </c>
     </row>
     <row r="28">
@@ -7686,19 +7686,19 @@
         <v>4868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11649</v>
+        <v>12031</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08441173422243321</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02709761095655298</v>
+        <v>0.02705723383929343</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.201978096724382</v>
+        <v>0.2086151367057943</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -7707,19 +7707,19 @@
         <v>16339</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9296</v>
+        <v>9542</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24828</v>
+        <v>24460</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2654831889771489</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1510533824615745</v>
+        <v>0.1550476770024418</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4034180880045669</v>
+        <v>0.3974461454183811</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -7728,19 +7728,19 @@
         <v>21207</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12828</v>
+        <v>13529</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31979</v>
+        <v>31535</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1778871036893468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1076028068685027</v>
+        <v>0.1134812195273682</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2682391075176472</v>
+        <v>0.2645123587994222</v>
       </c>
     </row>
     <row r="29">
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6454</v>
+        <v>6066</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03102263699750023</v>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1119110841174478</v>
+        <v>0.1051741935695204</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4961</v>
+        <v>4814</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0152694614148537</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0806077781876066</v>
+        <v>0.07822326625349728</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -7799,19 +7799,19 @@
         <v>2729</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7856</v>
+        <v>7496</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02289030100970037</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007164491093191743</v>
+        <v>0.007128398001760791</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06589403335676255</v>
+        <v>0.06287388514551423</v>
       </c>
     </row>
     <row r="30">
@@ -7950,19 +7950,19 @@
         <v>18308</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10778</v>
+        <v>11209</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28219</v>
+        <v>28550</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09359133501999881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0550966074837179</v>
+        <v>0.0573028377413662</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1442565466226275</v>
+        <v>0.1459497072386883</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -7971,19 +7971,19 @@
         <v>13160</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6924</v>
+        <v>7242</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22000</v>
+        <v>22374</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06952104651144224</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03657620587785486</v>
+        <v>0.03826052865424272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1162250905754549</v>
+        <v>0.1181993378517661</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -7992,19 +7992,19 @@
         <v>31468</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22048</v>
+        <v>21429</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43340</v>
+        <v>43660</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08175391209576194</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05728131765456672</v>
+        <v>0.05567346772110719</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1125996616034571</v>
+        <v>0.1134314116245962</v>
       </c>
     </row>
     <row r="33">
@@ -8021,19 +8021,19 @@
         <v>16904</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>10264</v>
+        <v>10496</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>26788</v>
+        <v>26859</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08641209474111977</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05246917715916007</v>
+        <v>0.05365644970467223</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.136940881101721</v>
+        <v>0.1373043963631679</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>14</v>
@@ -8042,19 +8042,19 @@
         <v>14928</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>8940</v>
+        <v>8789</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25165</v>
+        <v>23235</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07886505178745513</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04723053026155193</v>
+        <v>0.04642946303028663</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.132943768206235</v>
+        <v>0.1227494114570068</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -8063,19 +8063,19 @@
         <v>31832</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>21774</v>
+        <v>22197</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>44733</v>
+        <v>43681</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08270056717724565</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05656963998050686</v>
+        <v>0.05766883182783761</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1162175722686767</v>
+        <v>0.1134858267612858</v>
       </c>
     </row>
     <row r="34">
@@ -8092,19 +8092,19 @@
         <v>116706</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>102922</v>
+        <v>102446</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>130110</v>
+        <v>131064</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5966116077996101</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5261473916945809</v>
+        <v>0.5237132918947366</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6651317863430856</v>
+        <v>0.6700080954404849</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>109</v>
@@ -8113,19 +8113,19 @@
         <v>120017</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>106247</v>
+        <v>105420</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>133846</v>
+        <v>132834</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6340363148773664</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5612917782992473</v>
+        <v>0.5569224088715902</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7070919600714557</v>
+        <v>0.7017457957213284</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>223</v>
@@ -8134,19 +8134,19 @@
         <v>236724</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>217940</v>
+        <v>214312</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>257533</v>
+        <v>255016</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6150165423868128</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5662171567059038</v>
+        <v>0.5567911431540068</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6690794029934661</v>
+        <v>0.6625422822054292</v>
       </c>
     </row>
     <row r="35">
@@ -8163,19 +8163,19 @@
         <v>37854</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27927</v>
+        <v>27568</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>50159</v>
+        <v>49815</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1935125803009239</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1427662261384538</v>
+        <v>0.1409320369265378</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2564152925641429</v>
+        <v>0.2546581119559377</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -8184,19 +8184,19 @@
         <v>33899</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>23820</v>
+        <v>23491</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>46302</v>
+        <v>45770</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.179083879794422</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1258391100194836</v>
+        <v>0.1240986025985847</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2446064856859713</v>
+        <v>0.2417950347434869</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>65</v>
@@ -8205,19 +8205,19 @@
         <v>71753</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>56947</v>
+        <v>56582</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>87879</v>
+        <v>88158</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.186416752177306</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1479492827732787</v>
+        <v>0.1470022319642416</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2283127079966893</v>
+        <v>0.2290383284838766</v>
       </c>
     </row>
     <row r="36">
@@ -8234,19 +8234,19 @@
         <v>5843</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2024</v>
+        <v>1969</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12271</v>
+        <v>12150</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02987238213834743</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0103455924791298</v>
+        <v>0.0100672061251129</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06273166811922073</v>
+        <v>0.06211386235597932</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -8255,19 +8255,19 @@
         <v>4757</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1219</v>
+        <v>1550</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11546</v>
+        <v>11530</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02513117689503062</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006437204555586443</v>
+        <v>0.008185914691812254</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06099700539255028</v>
+        <v>0.06091002177820733</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>10</v>
@@ -8276,19 +8276,19 @@
         <v>10601</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5073</v>
+        <v>5450</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18799</v>
+        <v>18852</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02754072534845065</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01317860920810768</v>
+        <v>0.01415899418976213</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04883982668534267</v>
+        <v>0.04897709425257176</v>
       </c>
     </row>
     <row r="37">
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8928</v>
+        <v>9561</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01336253013428362</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04716804411489803</v>
+        <v>0.05050860820277882</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>8580</v>
+        <v>8998</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00657150081442295</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02229125223953035</v>
+        <v>0.0233773048946289</v>
       </c>
     </row>
     <row r="38">
@@ -8683,19 +8683,19 @@
         <v>5240</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1903</v>
+        <v>2141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10644</v>
+        <v>11387</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1054483611877947</v>
+        <v>0.1054483611877946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03829372884691862</v>
+        <v>0.04309510595392731</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.214196272273009</v>
+        <v>0.2291502070886984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -8704,19 +8704,19 @@
         <v>1923</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>606</v>
+        <v>527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4825</v>
+        <v>4799</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04099111168918181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01292535241023689</v>
+        <v>0.01122949234308463</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1028239922738248</v>
+        <v>0.1022751608248841</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -8725,19 +8725,19 @@
         <v>7163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3383</v>
+        <v>3519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13974</v>
+        <v>13542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07414333477408415</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03501860135825043</v>
+        <v>0.03641985665841936</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1446367652369563</v>
+        <v>0.1401709112198574</v>
       </c>
     </row>
     <row r="5">
@@ -8754,19 +8754,19 @@
         <v>2763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9081</v>
+        <v>9498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05559729132178216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007413388014066642</v>
+        <v>0.007722060094929357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.182740286092833</v>
+        <v>0.1911498374630387</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -8775,19 +8775,19 @@
         <v>2570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>883</v>
+        <v>836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5768</v>
+        <v>5968</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05476143671389803</v>
+        <v>0.05476143671389802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01882636781283166</v>
+        <v>0.01781007735139145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1229229299748454</v>
+        <v>0.1271812422245807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -8796,19 +8796,19 @@
         <v>5332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10846</v>
+        <v>11684</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05519134085412532</v>
+        <v>0.05519134085412533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02298108606787845</v>
+        <v>0.02289661160919116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1122646118549643</v>
+        <v>0.1209363031317729</v>
       </c>
     </row>
     <row r="6">
@@ -8825,19 +8825,19 @@
         <v>31930</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25362</v>
+        <v>24386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39687</v>
+        <v>38360</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6425647694334266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5103984453698083</v>
+        <v>0.4907534127605617</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7986665473728721</v>
+        <v>0.7719631675678346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -8846,19 +8846,19 @@
         <v>31619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26835</v>
+        <v>26532</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36151</v>
+        <v>36076</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.673866187246123</v>
+        <v>0.6738661872461229</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.571900331922228</v>
+        <v>0.5654472128088888</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7704467865830752</v>
+        <v>0.7688492441144072</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -8867,19 +8867,19 @@
         <v>63548</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55028</v>
+        <v>54507</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71825</v>
+        <v>71259</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6577669649821852</v>
+        <v>0.6577669649821855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5695750056427187</v>
+        <v>0.5641829380042708</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7434371323774206</v>
+        <v>0.7375816365897166</v>
       </c>
     </row>
     <row r="7">
@@ -8896,19 +8896,19 @@
         <v>9759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4756</v>
+        <v>5152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15863</v>
+        <v>17068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1963895780569967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09571210272605218</v>
+        <v>0.1036729147339822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3192246321152085</v>
+        <v>0.3434730666178165</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -8917,19 +8917,19 @@
         <v>10810</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6877</v>
+        <v>7097</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15398</v>
+        <v>15786</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2303812643507973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1465716667698889</v>
+        <v>0.1512513610763286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3281655264830378</v>
+        <v>0.3364267414047022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -8938,19 +8938,19 @@
         <v>20569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14067</v>
+        <v>14027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28726</v>
+        <v>29035</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2128983593896051</v>
+        <v>0.2128983593896052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.145606143302407</v>
+        <v>0.1451851107782916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2973307702067848</v>
+        <v>0.3005303548125486</v>
       </c>
     </row>
     <row r="8">
@@ -9136,19 +9136,19 @@
         <v>18502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9814</v>
+        <v>10227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31034</v>
+        <v>29326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2473095582605173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1311809993053881</v>
+        <v>0.1367011322425754</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4148131907660927</v>
+        <v>0.3919842945551946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -9157,19 +9157,19 @@
         <v>7431</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3713</v>
+        <v>3619</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12499</v>
+        <v>12163</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1183158295958779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05912691069782083</v>
+        <v>0.05762901179159539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1990181234618201</v>
+        <v>0.1936737797549152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -9178,19 +9178,19 @@
         <v>25933</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16513</v>
+        <v>15698</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40923</v>
+        <v>39941</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1884413353364058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.119994651475322</v>
+        <v>0.1140728184123046</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.297370126684339</v>
+        <v>0.2902339174067769</v>
       </c>
     </row>
     <row r="12">
@@ -9207,19 +9207,19 @@
         <v>8422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2653</v>
+        <v>2693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18014</v>
+        <v>19322</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1125690496074548</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03546652427159177</v>
+        <v>0.03599232821602569</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2407901041100749</v>
+        <v>0.2582673836454356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -9228,19 +9228,19 @@
         <v>4516</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19576</v>
+        <v>16695</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.07191110206104293</v>
+        <v>0.07191110206104294</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01142013852040986</v>
+        <v>0.0115768602954949</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3117067433737055</v>
+        <v>0.2658302955808463</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -9249,19 +9249,19 @@
         <v>12938</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5216</v>
+        <v>4924</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26379</v>
+        <v>26117</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09401418539369463</v>
+        <v>0.09401418539369459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03790119780701257</v>
+        <v>0.03577763979081691</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1916851174060595</v>
+        <v>0.1897822997104704</v>
       </c>
     </row>
     <row r="13">
@@ -9278,19 +9278,19 @@
         <v>31441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22010</v>
+        <v>21951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42766</v>
+        <v>41459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4202606831074175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2941938045805511</v>
+        <v>0.2934045040508331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5716373539436089</v>
+        <v>0.5541609486394747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -9299,19 +9299,19 @@
         <v>39004</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30254</v>
+        <v>31741</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45672</v>
+        <v>46180</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6210506614173373</v>
+        <v>0.6210506614173374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4817144760612389</v>
+        <v>0.5053915188412106</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7272194728038637</v>
+        <v>0.7353046800835177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -9320,19 +9320,19 @@
         <v>70446</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57506</v>
+        <v>57340</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83006</v>
+        <v>83576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5118942014686563</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4178680973609021</v>
+        <v>0.4166622043178127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6031607335009808</v>
+        <v>0.6073073723068306</v>
       </c>
     </row>
     <row r="14">
@@ -9349,19 +9349,19 @@
         <v>13813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7775</v>
+        <v>7677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21792</v>
+        <v>21292</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1846329226224684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1039261200001051</v>
+        <v>0.1026126333100504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.291280444547451</v>
+        <v>0.2846053976956217</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -9370,19 +9370,19 @@
         <v>10604</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6927</v>
+        <v>6357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17459</v>
+        <v>16545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1688436733825103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1102896233303234</v>
+        <v>0.1012151518102114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2779896115316407</v>
+        <v>0.2634463945277209</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -9391,19 +9391,19 @@
         <v>24417</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16953</v>
+        <v>16584</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33013</v>
+        <v>33830</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1774272619001653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1231908302606376</v>
+        <v>0.1205059981618468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2398914213470328</v>
+        <v>0.2458282422469691</v>
       </c>
     </row>
     <row r="15">
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9785</v>
+        <v>9023</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03522778640214196</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1307895345473731</v>
+        <v>0.1206027995132762</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4471</v>
+        <v>4231</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01987873354323144</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07119307409756787</v>
+        <v>0.06737143678787079</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -9462,19 +9462,19 @@
         <v>3884</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1104</v>
+        <v>1162</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10058</v>
+        <v>10445</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02822301590107799</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008023335040543672</v>
+        <v>0.008444896437913334</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07308559529320606</v>
+        <v>0.07589870402742567</v>
       </c>
     </row>
     <row r="16">
@@ -9613,19 +9613,19 @@
         <v>2776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6936</v>
+        <v>6965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0841778494286468</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02536257163849861</v>
+        <v>0.02483152040021953</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2103451958320929</v>
+        <v>0.2112288950977306</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -9634,19 +9634,19 @@
         <v>4534</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1975</v>
+        <v>1496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9044</v>
+        <v>8526</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09162885168033195</v>
+        <v>0.09162885168033198</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03990783141186111</v>
+        <v>0.03024249204003794</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1827693193408518</v>
+        <v>0.1723037957689551</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -9655,19 +9655,19 @@
         <v>7309</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3687</v>
+        <v>3740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13818</v>
+        <v>13759</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0886492724365614</v>
+        <v>0.08864927243656137</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04472148320840976</v>
+        <v>0.04535474558805023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1675833118770791</v>
+        <v>0.1668695879492876</v>
       </c>
     </row>
     <row r="19">
@@ -9684,19 +9684,19 @@
         <v>6048</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2124</v>
+        <v>2247</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11824</v>
+        <v>11826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1834201578261616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06441965505676718</v>
+        <v>0.06814829217679849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3586055150846525</v>
+        <v>0.3586546158092192</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -9705,19 +9705,19 @@
         <v>2438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7254</v>
+        <v>6699</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0492800080535051</v>
+        <v>0.04928000805350512</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01194111141567929</v>
+        <v>0.01224854708635575</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1465940728446944</v>
+        <v>0.1353914803632791</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -9726,19 +9726,19 @@
         <v>8486</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3935</v>
+        <v>3819</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15679</v>
+        <v>15310</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1029212757002154</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04772017074991621</v>
+        <v>0.04632167328360504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1901599326286554</v>
+        <v>0.1856848412804596</v>
       </c>
     </row>
     <row r="20">
@@ -9755,19 +9755,19 @@
         <v>13631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7412</v>
+        <v>7929</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19851</v>
+        <v>20350</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4134070338658911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2247919573639724</v>
+        <v>0.2404817209224707</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6020484161035964</v>
+        <v>0.6171899630422787</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -9776,19 +9776,19 @@
         <v>30940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24456</v>
+        <v>24811</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36824</v>
+        <v>36612</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6252880926796847</v>
+        <v>0.6252880926796849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4942564867412756</v>
+        <v>0.501418320412926</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7442077233062429</v>
+        <v>0.7399169831969991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -9797,19 +9797,19 @@
         <v>44570</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35772</v>
+        <v>34975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53237</v>
+        <v>52223</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5405590342705383</v>
+        <v>0.5405590342705381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4338501267228359</v>
+        <v>0.4241900702912125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6456696636309964</v>
+        <v>0.6333722563594513</v>
       </c>
     </row>
     <row r="21">
@@ -9826,19 +9826,19 @@
         <v>9105</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4408</v>
+        <v>4148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15139</v>
+        <v>14948</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2761554726860469</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1336966471246384</v>
+        <v>0.1257886202151719</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4591319984769021</v>
+        <v>0.4533476387775156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -9847,19 +9847,19 @@
         <v>9489</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5458</v>
+        <v>5461</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15412</v>
+        <v>15120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1917711646411618</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1102980251420468</v>
+        <v>0.1103695999785443</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3114825914740127</v>
+        <v>0.3055715466539855</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -9868,19 +9868,19 @@
         <v>18594</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11705</v>
+        <v>12212</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25726</v>
+        <v>26112</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2255155824063851</v>
+        <v>0.2255155824063849</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1419578177371865</v>
+        <v>0.1481095308635142</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3120126435862545</v>
+        <v>0.3166895898057174</v>
       </c>
     </row>
     <row r="22">
@@ -9913,16 +9913,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4456</v>
+        <v>4693</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02972151044583517</v>
+        <v>0.02972151044583518</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09005057377421433</v>
+        <v>0.09484079538562341</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4760</v>
+        <v>4745</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01783618379761246</v>
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05772814718352447</v>
+        <v>0.05754691173857115</v>
       </c>
     </row>
     <row r="23">
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6914</v>
+        <v>7282</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04283948619325361</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2096880957080792</v>
+        <v>0.2208592152396896</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3359</v>
+        <v>3272</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01231037249948118</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06788609429863855</v>
+        <v>0.06613053146205757</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -10005,16 +10005,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7939</v>
+        <v>8809</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0245186513886875</v>
+        <v>0.02451865138868749</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.096286329466096</v>
+        <v>0.1068332774428908</v>
       </c>
     </row>
     <row r="24">
@@ -10106,19 +10106,19 @@
         <v>2530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7254</v>
+        <v>7339</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03980943508242057</v>
+        <v>0.03980943508242058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008026128512983746</v>
+        <v>0.0081568148169084</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1141587544490497</v>
+        <v>0.1154881714361265</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -10127,19 +10127,19 @@
         <v>6876</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3126</v>
+        <v>3346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12078</v>
+        <v>11761</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09422039543509295</v>
+        <v>0.09422039543509292</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04284163375186106</v>
+        <v>0.04585043155864538</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1655156632713775</v>
+        <v>0.1611746731813888</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -10148,19 +10148,19 @@
         <v>9405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5386</v>
+        <v>5216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15472</v>
+        <v>15857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06889355567449647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03945021135274356</v>
+        <v>0.0382100822413175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1133328431818607</v>
+        <v>0.1161504189314669</v>
       </c>
     </row>
     <row r="26">
@@ -10180,16 +10180,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8216</v>
+        <v>7551</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03549242124792509</v>
+        <v>0.0354924212479251</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1292987095568948</v>
+        <v>0.1188272461869453</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -10198,19 +10198,19 @@
         <v>2093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>662</v>
+        <v>516</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5373</v>
+        <v>5298</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0286801176120327</v>
+        <v>0.02868011761203269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00906580648389029</v>
+        <v>0.007068112513594823</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07363445679246361</v>
+        <v>0.07260256298292074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -10219,19 +10219,19 @@
         <v>4348</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1605</v>
+        <v>1409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10990</v>
+        <v>9199</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03185106187525597</v>
+        <v>0.03185106187525598</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01175705338108482</v>
+        <v>0.01032431217640943</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08050242707509336</v>
+        <v>0.06738096963013503</v>
       </c>
     </row>
     <row r="27">
@@ -10248,19 +10248,19 @@
         <v>39187</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30344</v>
+        <v>30396</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>46235</v>
+        <v>46699</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6166661495259936</v>
+        <v>0.6166661495259939</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4775092107189288</v>
+        <v>0.4783286243556201</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7275836748737355</v>
+        <v>0.7348797502702359</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>67</v>
@@ -10269,19 +10269,19 @@
         <v>44057</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>36496</v>
+        <v>36898</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>49935</v>
+        <v>49961</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6037410572477361</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5001312411060004</v>
+        <v>0.5056334371106173</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6842992853210781</v>
+        <v>0.684647837349306</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>105</v>
@@ -10290,19 +10290,19 @@
         <v>83244</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>72245</v>
+        <v>72361</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>93685</v>
+        <v>95033</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6097573403440198</v>
+        <v>0.60975734034402</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5291927554093698</v>
+        <v>0.5300426827107297</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6862364128484568</v>
+        <v>0.6961099551243086</v>
       </c>
     </row>
     <row r="28">
@@ -10319,19 +10319,19 @@
         <v>17344</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10946</v>
+        <v>11015</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25843</v>
+        <v>26461</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2729396227322966</v>
+        <v>0.2729396227322967</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1722455101006723</v>
+        <v>0.173343716683286</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4066812173303482</v>
+        <v>0.4164116663405306</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -10340,19 +10340,19 @@
         <v>17030</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11818</v>
+        <v>12113</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24231</v>
+        <v>23408</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2333715372295499</v>
+        <v>0.2333715372295498</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1619521693461694</v>
+        <v>0.1659921024416144</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3320535265075792</v>
+        <v>0.3207811936346509</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -10361,19 +10361,19 @@
         <v>34374</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>25660</v>
+        <v>25518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44911</v>
+        <v>44333</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2517894176467705</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.187954583212086</v>
+        <v>0.1869151849721778</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3289734313890042</v>
+        <v>0.3247375090786289</v>
       </c>
     </row>
     <row r="29">
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7619</v>
+        <v>8365</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03509237141136389</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1199019879798331</v>
+        <v>0.1316378138100893</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10411,19 +10411,19 @@
         <v>2918</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8744</v>
+        <v>8669</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03998689247558845</v>
+        <v>0.03998689247558844</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009359037829351871</v>
+        <v>0.009373291436338893</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1198195511808079</v>
+        <v>0.11879323428144</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -10432,19 +10432,19 @@
         <v>5148</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1735</v>
+        <v>1686</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11320</v>
+        <v>12464</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03770862445945719</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01270637476938866</v>
+        <v>0.0123508571492887</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08292089062315941</v>
+        <v>0.09130000966275878</v>
       </c>
     </row>
     <row r="30">
@@ -10583,19 +10583,19 @@
         <v>29047</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18455</v>
+        <v>18208</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42769</v>
+        <v>45162</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1314220168483564</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08349707807346521</v>
+        <v>0.08238092326908378</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.193505083451784</v>
+        <v>0.2043326781554413</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -10604,19 +10604,19 @@
         <v>20764</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14297</v>
+        <v>14737</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29473</v>
+        <v>29300</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08942860494598073</v>
+        <v>0.08942860494598075</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06157749898805195</v>
+        <v>0.0634741582885741</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1269405328259632</v>
+        <v>0.1261936880208908</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -10625,19 +10625,19 @@
         <v>49811</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37609</v>
+        <v>37378</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68334</v>
+        <v>66578</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1099083993257326</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08298467141958064</v>
+        <v>0.08247583396059933</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1507806079118501</v>
+        <v>0.1469061378140875</v>
       </c>
     </row>
     <row r="33">
@@ -10654,19 +10654,19 @@
         <v>19488</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>11618</v>
+        <v>10901</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>32631</v>
+        <v>32807</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0881697828418825</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05256539587857647</v>
+        <v>0.04931918687915268</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.147635486230063</v>
+        <v>0.1484314105977488</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -10675,19 +10675,19 @@
         <v>11617</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6299</v>
+        <v>6203</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>22100</v>
+        <v>22745</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05003493612983915</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02712930986560046</v>
+        <v>0.02671570590301878</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0951833477893458</v>
+        <v>0.09796414758577465</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -10696,19 +10696,19 @@
         <v>31105</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20655</v>
+        <v>20327</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>46615</v>
+        <v>46323</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.06863294434078476</v>
+        <v>0.06863294434078478</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04557469717568258</v>
+        <v>0.04485293197683961</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1028567418714311</v>
+        <v>0.1022126189295747</v>
       </c>
     </row>
     <row r="34">
@@ -10725,19 +10725,19 @@
         <v>116189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99717</v>
+        <v>98589</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>132819</v>
+        <v>131312</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5256854423038559</v>
+        <v>0.5256854423038561</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4511610184721474</v>
+        <v>0.4460562583913078</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6009304140575719</v>
+        <v>0.5941118936984393</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>227</v>
@@ -10746,19 +10746,19 @@
         <v>145620</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131677</v>
+        <v>132478</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>157586</v>
+        <v>157709</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.6271869926336974</v>
+        <v>0.6271869926336973</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5671313430201869</v>
+        <v>0.5705841197956149</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6787225474599153</v>
+        <v>0.6792529038892491</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>343</v>
@@ -10767,19 +10767,19 @@
         <v>261809</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>240167</v>
+        <v>240390</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>283733</v>
+        <v>283342</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5776856354966844</v>
+        <v>0.5776856354966845</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5299317183757413</v>
+        <v>0.5304246314762154</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6260621557312761</v>
+        <v>0.6251979456238828</v>
       </c>
     </row>
     <row r="35">
@@ -10796,19 +10796,19 @@
         <v>50022</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>37188</v>
+        <v>38554</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>63726</v>
+        <v>62998</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2263183500794365</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1682523326010012</v>
+        <v>0.1744334737073606</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2883244972652557</v>
+        <v>0.2850285135283309</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>78</v>
@@ -10817,19 +10817,19 @@
         <v>47933</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>37870</v>
+        <v>38794</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>58423</v>
+        <v>60043</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2064470229199634</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1631042523047615</v>
+        <v>0.1670852584002168</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2516262193945895</v>
+        <v>0.2586047015461082</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>131</v>
@@ -10838,19 +10838,19 @@
         <v>97954</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>81284</v>
+        <v>82887</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>114126</v>
+        <v>115555</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2161380833945176</v>
+        <v>0.2161380833945177</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1793544448162816</v>
+        <v>0.1828910604661959</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2518198853916159</v>
+        <v>0.2549734530744105</v>
       </c>
     </row>
     <row r="36">
@@ -10867,19 +10867,19 @@
         <v>4866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1271</v>
+        <v>1350</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11844</v>
+        <v>12387</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02201366347697351</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005749653476553457</v>
+        <v>0.006107459099761117</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05358711017140289</v>
+        <v>0.05604533421290846</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -10888,19 +10888,19 @@
         <v>5637</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2686</v>
+        <v>2242</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12532</v>
+        <v>12328</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02427894162104712</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01157000216915787</v>
+        <v>0.00965685557824323</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05397566303116072</v>
+        <v>0.05309507224590338</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -10909,19 +10909,19 @@
         <v>10503</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5858</v>
+        <v>5163</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19795</v>
+        <v>19292</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02317418664873326</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01292523973081381</v>
+        <v>0.01139263356492218</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04367828601920044</v>
+        <v>0.04256791134526845</v>
       </c>
     </row>
     <row r="37">
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5815</v>
+        <v>7502</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006390744449495008</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02631001226714536</v>
+        <v>0.03394207265970919</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3454</v>
+        <v>3124</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002623501749472327</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01487633551410636</v>
+        <v>0.01345554727377506</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7790</v>
+        <v>7921</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.004460750793547287</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01718847123615759</v>
+        <v>0.01747738523818591</v>
       </c>
     </row>
     <row r="38">
